--- a/Investment/THS/AutoTrade/data/账户持仓信息.xlsx
+++ b/Investment/THS/AutoTrade/data/账户持仓信息.xlsx
@@ -469,12 +469,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1,574.08</t>
+          <t>88,438.96</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>85,688.20</t>
+          <t>+4,220.27</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -484,7 +484,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1,574.08</t>
+          <t>88,438.96</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -509,7 +509,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -520,7 +520,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>股票名</t>
+          <t>标的名称</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -547,76 +547,76 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>可转债ETF</t>
+          <t>超讯通信</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>100.58/0.930%</t>
+          <t>47.96/1.060%</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-33.30/-0.304%</t>
+          <t>50.62/1.128%</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>12.036/12.148</t>
+          <t>44.912/45.390</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>900/900</t>
+          <t>100/100</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>政金债券ETF</t>
+          <t>可转债ETF</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>6.36/0.060%</t>
+          <t>120.38/1.110%</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2.00/0.017%</t>
+          <t>19.80/0.181%</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>115.550/115.614</t>
+          <t>12.036/12.170</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>100/100</t>
+          <t>900/900</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>国债政金债ETF</t>
+          <t>政金债券ETF</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>12.68/0.120%</t>
+          <t>9.36/0.080%</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2.90/0.027%</t>
+          <t>3.00/0.026%</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>107.607/107.734</t>
+          <t>115.550/115.644</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -628,135 +628,135 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>恒生科技ETF</t>
+          <t>国债政金债ETF</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>293.81/11.470%</t>
+          <t>14.98/0.140%</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-73.80/-2.521%</t>
+          <t>2.30/0.021%</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.624/0.696</t>
+          <t>107.607/107.757</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4100/4100</t>
+          <t>100/100</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>稀土ETF</t>
+          <t>恒生科技ETF</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>-3.34/-0.110%</t>
+          <t>326.61/12.750%</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-39.00/-1.143%</t>
+          <t>32.80/1.149%</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.125/1.124</t>
+          <t>0.624/0.704</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3000/3000</t>
+          <t>4100/4100</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>黄金ETF华夏</t>
+          <t>稀土ETF</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>143.32/2.760%</t>
+          <t>44.66/1.320%</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>61.60/1.167%</t>
+          <t>48.00/1.423%</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>7.423/7.627</t>
+          <t>1.125/1.140</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>700/700</t>
+          <t>3000/3000</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A500指数ETF</t>
+          <t>黄金ETF华夏</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>-29.19/-0.970%</t>
+          <t>125.82/2.420%</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>-22.40/-0.738%</t>
+          <t>-17.50/-0.328%</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.950/0.941</t>
+          <t>7.423/7.602</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3200/3200</t>
+          <t>700/700</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>中恒集团</t>
+          <t>A500指数ETF</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>64.14/5.200%</t>
+          <t>-16.39/-0.550%</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>-25.00/-1.894%</t>
+          <t>12.80/0.425%</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2.462/2.590</t>
+          <t>0.950/0.945</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>500/500</t>
+          <t>3200/3200</t>
         </is>
       </c>
     </row>
@@ -768,17 +768,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>183.21/6.360%</t>
+          <t>167.22/5.810%</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>43.00/1.424%</t>
+          <t>-16.00/-0.523%</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>28.789/30.620</t>
+          <t>28.789/30.460</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -795,17 +795,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>273.75/23.920%</t>
+          <t>283.75/24.790%</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>-4.00/-0.281%</t>
+          <t>10.00/0.705%</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>5.721/7.090</t>
+          <t>5.721/7.140</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -822,17 +822,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>414.46/15.620%</t>
+          <t>446.44/16.830%</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>20.00/0.656%</t>
+          <t>32.00/1.043%</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>6.634/7.670</t>
+          <t>6.634/7.750</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -849,17 +849,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>40.76/2.250%</t>
+          <t>49.75/2.750%</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>-102.00/-5.247%</t>
+          <t>9.00/0.489%</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>6.005/6.140</t>
+          <t>6.005/6.170</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -871,268 +871,187 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>未找到</t>
+          <t>醋化股份</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>未找到/未找到</t>
+          <t>46.26/1.400%</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>未找到/未找到</t>
+          <t>-3.00/-0.090%</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>未找到/未找到</t>
+          <t>10.946/11.100</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>未找到</t>
+          <t>300/300</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>吉祥航空</t>
+          <t>汉钟精机</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>99.09/7.870%</t>
+          <t>-50.27/-1.470%</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>-48.00/-3.419%</t>
+          <t>12.00/0.357%</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>12.570/13.560</t>
+          <t>17.133/16.880</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>100/100</t>
+          <t>200/200</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>醋化股份</t>
+          <t>永安药业</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>49.26/1.490%</t>
+          <t>826.44/18.040%</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>-63.00/-1.855%</t>
+          <t>360.00/7.129%</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>10.946/11.110</t>
+          <t>22.916/27.050</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>300/300</t>
+          <t>200/200</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>华生科技</t>
+          <t>毅昌科技</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>-119.84/-4.200%</t>
+          <t>-77.58/-3.210%</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>-76.00/-2.699%</t>
+          <t>4.00/0.171%</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>14.301/13.700</t>
+          <t>6.055/5.860</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>200/200</t>
+          <t>400/400</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>汉钟精机</t>
+          <t>利民股份</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>-62.26/-1.820%</t>
+          <t>1,627.56/31.420%</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>-54.00/-1.580%</t>
+          <t>618.00/9.981%</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>17.133/16.820</t>
+          <t>17.272/22.700</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>200/200</t>
+          <t>300/300</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>永安药业</t>
+          <t>标普ETF</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>466.65/10.180%</t>
+          <t>-193.63/未找到</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>460.00/10.022%</t>
+          <t>18.70/未找到</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>22.916/25.250</t>
+          <t>1.677/未找到</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>200/200</t>
+          <t>未找到</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>毅昌科技</t>
+          <t>恒生ETF</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>-81.58/-3.380%</t>
+          <t>420.95/0.000%</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>-84.00/-3.465%</t>
+          <t>1.30/0.890%</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>6.055/5.850</t>
+          <t>-2.736/1.474</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
-        <is>
-          <t>400/400</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>利民股份</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>1,009.92/19.500%</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>-687.00/-9.987%</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>17.272/20.640</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>300/300</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>标普ETF</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>-212.33/-7.450%</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>-22.10/-0.831%</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>1.677/1.552</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>1700/1700</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>恒生ETF</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>419.65/0.000%</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>-2.20/-1.483%</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>-2.736/1.461</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
         <is>
           <t>100/100</t>
         </is>

--- a/Investment/THS/AutoTrade/data/账户持仓信息.xlsx
+++ b/Investment/THS/AutoTrade/data/账户持仓信息.xlsx
@@ -1,21 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView windowWidth="20520" windowHeight="10005" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="表头信息" sheetId="1" r:id="rId1"/>
+    <sheet name="表头数据" sheetId="1" r:id="rId1"/>
     <sheet name="持仓数据" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="99">
   <si>
     <t>总资产</t>
   </si>
@@ -35,10 +48,10 @@
     <t>可取</t>
   </si>
   <si>
-    <t>87,726.60</t>
-  </si>
-  <si>
-    <t>+3,514.23</t>
+    <t>87,726.20</t>
+  </si>
+  <si>
+    <t>+3,514.83</t>
   </si>
   <si>
     <t>/未找到</t>
@@ -50,9 +63,6 @@
     <t>12,535.80</t>
   </si>
   <si>
-    <t>2,455.56</t>
-  </si>
-  <si>
     <t>标的名称</t>
   </si>
   <si>
@@ -65,267 +75,630 @@
     <t>持仓/可用</t>
   </si>
   <si>
+    <t>京运通</t>
+  </si>
+  <si>
+    <t>-1.26/-0.080%</t>
+  </si>
+  <si>
+    <t>0.00/0.000%</t>
+  </si>
+  <si>
+    <t>3.132/3.130</t>
+  </si>
+  <si>
+    <t>600/0</t>
+  </si>
+  <si>
+    <t>超讯通信</t>
+  </si>
+  <si>
+    <t>-405.77/-9.040%</t>
+  </si>
+  <si>
+    <t>-454.00/-10.002%</t>
+  </si>
+  <si>
+    <t>44.912/40.850</t>
+  </si>
+  <si>
+    <t>100/100</t>
+  </si>
+  <si>
+    <t>可转债ETF</t>
+  </si>
+  <si>
+    <t>119.48/1.100%</t>
+  </si>
+  <si>
+    <t>-0.90/-0.008%</t>
+  </si>
+  <si>
+    <t>12.036/12.169</t>
+  </si>
+  <si>
+    <t>900/900</t>
+  </si>
+  <si>
+    <t>政金债券ETF</t>
+  </si>
+  <si>
+    <t>20.96/0.180%</t>
+  </si>
+  <si>
+    <t>11.60/0.100%</t>
+  </si>
+  <si>
+    <t>115.550/115.760</t>
+  </si>
+  <si>
+    <t>国债政金债ETF</t>
+  </si>
+  <si>
+    <t>22.48/0.210%</t>
+  </si>
+  <si>
+    <t>7.50/0.070%</t>
+  </si>
+  <si>
+    <t>107.607/107.832</t>
+  </si>
+  <si>
+    <t>恒生科技ETF</t>
+  </si>
+  <si>
+    <t>326.61/12.750%</t>
+  </si>
+  <si>
+    <t>0.624/0.704</t>
+  </si>
+  <si>
+    <t>4100/4100</t>
+  </si>
+  <si>
+    <t>稀土ETF</t>
+  </si>
+  <si>
+    <t>14.66/0.430%</t>
+  </si>
+  <si>
+    <t>-30.00/-0.877%</t>
+  </si>
+  <si>
+    <t>1.125/1.130</t>
+  </si>
+  <si>
+    <t>3000/3000</t>
+  </si>
+  <si>
+    <t>黄金ETF华夏</t>
+  </si>
+  <si>
+    <t>80.33/1.540%</t>
+  </si>
+  <si>
+    <t>-45.50/-0.855%</t>
+  </si>
+  <si>
+    <t>7.423/7.537</t>
+  </si>
+  <si>
+    <t>700/700</t>
+  </si>
+  <si>
+    <t>A500指数ETF</t>
+  </si>
+  <si>
+    <t>-22.79/-0.760%</t>
+  </si>
+  <si>
+    <t>-6.40/-0.212%</t>
+  </si>
+  <si>
+    <t>0.950/0.943</t>
+  </si>
+  <si>
+    <t>3200/3200</t>
+  </si>
+  <si>
+    <t>长江电力</t>
+  </si>
+  <si>
+    <t>188.21/6.530%</t>
+  </si>
+  <si>
+    <t>21.00/0.689%</t>
+  </si>
+  <si>
+    <t>28.789/30.670</t>
+  </si>
+  <si>
+    <t>工商银行</t>
+  </si>
+  <si>
+    <t>289.74/25.320%</t>
+  </si>
+  <si>
+    <t>6.00/0.420%</t>
+  </si>
+  <si>
+    <t>5.721/7.170</t>
+  </si>
+  <si>
+    <t>200/200</t>
+  </si>
+  <si>
+    <t>中国电信</t>
+  </si>
+  <si>
+    <t>450.44/16.980%</t>
+  </si>
+  <si>
+    <t>4.00/0.129%</t>
+  </si>
+  <si>
+    <t>6.634/7.760</t>
+  </si>
+  <si>
+    <t>400/400</t>
+  </si>
+  <si>
+    <t>奥康国际</t>
+  </si>
+  <si>
+    <t>67.75/3.750%</t>
+  </si>
+  <si>
+    <t>18.00/0.972%</t>
+  </si>
+  <si>
+    <t>6.005/6.230</t>
+  </si>
+  <si>
+    <t>300/300</t>
+  </si>
+  <si>
+    <t>醋化股份</t>
+  </si>
+  <si>
+    <t>34.27/1.040%</t>
+  </si>
+  <si>
+    <t>-12.00/-0.360%</t>
+  </si>
+  <si>
+    <t>10.946/11.060</t>
+  </si>
+  <si>
     <t>汉钟精机</t>
   </si>
   <si>
-    <t>京运通</t>
+    <t>-24.28/-0.720%</t>
+  </si>
+  <si>
+    <t>26.00/0.770%</t>
+  </si>
+  <si>
+    <t>17.133/17.010</t>
   </si>
   <si>
     <t>毅昌科技</t>
   </si>
   <si>
-    <t>醋化股份</t>
-  </si>
-  <si>
-    <t>稀土ETF</t>
-  </si>
-  <si>
-    <t>超讯通信</t>
-  </si>
-  <si>
-    <t>短线趋势题材</t>
-  </si>
-  <si>
-    <t>奥康国际</t>
-  </si>
-  <si>
-    <t>宽基</t>
+    <t>-77.58/-3.210%</t>
+  </si>
+  <si>
+    <t>6.055/5.860</t>
   </si>
   <si>
     <t>标普ETF</t>
   </si>
   <si>
-    <t>恒生科技ETF</t>
+    <t>-190.23/-6.680%</t>
+  </si>
+  <si>
+    <t>3.40/0.128%</t>
+  </si>
+  <si>
+    <t>1.677/1.565</t>
+  </si>
+  <si>
+    <t>1700/1700</t>
   </si>
   <si>
     <t>恒生ETF</t>
   </si>
   <si>
-    <t>A500指数ETF</t>
-  </si>
-  <si>
-    <t>债券</t>
-  </si>
-  <si>
-    <t>政金债券ETF</t>
-  </si>
-  <si>
-    <t>国债政金债ETF</t>
-  </si>
-  <si>
-    <t>可转债ETF</t>
-  </si>
-  <si>
-    <t>长线</t>
-  </si>
-  <si>
-    <t>长江电力</t>
-  </si>
-  <si>
-    <t>工商银行</t>
+    <t>420.65/0.000%</t>
+  </si>
+  <si>
+    <t>-0.30/-0.204%</t>
+  </si>
+  <si>
+    <t>-2.736/1.471</t>
+  </si>
+  <si>
+    <t>隐藏</t>
+  </si>
+  <si>
+    <t>未找到/未找到</t>
   </si>
   <si>
     <t>未找到</t>
-  </si>
-  <si>
-    <t>中国电信</t>
-  </si>
-  <si>
-    <t>黄金ETF华夏</t>
-  </si>
-  <si>
-    <t>隐藏</t>
-  </si>
-  <si>
-    <t>永安药业</t>
-  </si>
-  <si>
-    <t>利民股份</t>
-  </si>
-  <si>
-    <t>-24.28/-0.720%</t>
-  </si>
-  <si>
-    <t>-1.46/-0.090%</t>
-  </si>
-  <si>
-    <t>-77.58/-3.210%</t>
-  </si>
-  <si>
-    <t>34.27/1.040%</t>
-  </si>
-  <si>
-    <t>14.66/1.040%</t>
-  </si>
-  <si>
-    <t>-405.77/-9.040%</t>
-  </si>
-  <si>
-    <t>67.75/3.750%</t>
-  </si>
-  <si>
-    <t>-190.23/-6.680%</t>
-  </si>
-  <si>
-    <t>326.61/12.750%</t>
-  </si>
-  <si>
-    <t>420.65/0.000%</t>
-  </si>
-  <si>
-    <t>-22.79/-0.760%</t>
-  </si>
-  <si>
-    <t>20.96/0.180%</t>
-  </si>
-  <si>
-    <t>22.48/0.210%</t>
-  </si>
-  <si>
-    <t>119.48/1.100%</t>
-  </si>
-  <si>
-    <t>188.21/6.530%</t>
-  </si>
-  <si>
-    <t>289.74/25.320%</t>
-  </si>
-  <si>
-    <t>未找到/未找到</t>
-  </si>
-  <si>
-    <t>450.44/16.980%</t>
-  </si>
-  <si>
-    <t>80.33/1.540%</t>
-  </si>
-  <si>
-    <t>702.32/12.230%</t>
-  </si>
-  <si>
-    <t>1,498.44/28.440%</t>
-  </si>
-  <si>
-    <t>26.00/0.770%</t>
-  </si>
-  <si>
-    <t>0.00/0.000%</t>
-  </si>
-  <si>
-    <t>-12.00/-0.360%</t>
-  </si>
-  <si>
-    <t>-30.00/-0.360%</t>
-  </si>
-  <si>
-    <t>-454.00/-10.002%</t>
-  </si>
-  <si>
-    <t>18.00/0.972%</t>
-  </si>
-  <si>
-    <t>3.40/0.128%</t>
-  </si>
-  <si>
-    <t>-0.30/-0.204%</t>
-  </si>
-  <si>
-    <t>-6.40/-0.212%</t>
-  </si>
-  <si>
-    <t>11.60/0.100%</t>
-  </si>
-  <si>
-    <t>7.50/0.070%</t>
-  </si>
-  <si>
-    <t>-0.90/-0.008%</t>
-  </si>
-  <si>
-    <t>21.00/0.689%</t>
-  </si>
-  <si>
-    <t>6.00/0.420%</t>
-  </si>
-  <si>
-    <t>4.00/0.129%</t>
-  </si>
-  <si>
-    <t>-45.50/-0.855%</t>
-  </si>
-  <si>
-    <t>-124.00/-2.292%</t>
-  </si>
-  <si>
-    <t>-129.00/-1.894%</t>
-  </si>
-  <si>
-    <t>200/200</t>
-  </si>
-  <si>
-    <t>600/0</t>
-  </si>
-  <si>
-    <t>400/400</t>
-  </si>
-  <si>
-    <t>300/300</t>
-  </si>
-  <si>
-    <t>3000/300</t>
-  </si>
-  <si>
-    <t>100/100</t>
-  </si>
-  <si>
-    <t>1700/1700</t>
-  </si>
-  <si>
-    <t>4100/4100</t>
-  </si>
-  <si>
-    <t>3200/3200</t>
-  </si>
-  <si>
-    <t>900/900</t>
-  </si>
-  <si>
-    <t>700/700</t>
-  </si>
-  <si>
-    <t>0/0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -348,9 +721,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -358,11 +973,63 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -374,7 +1041,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -645,17 +1312,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
@@ -694,482 +1363,368 @@
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
         <v>16</v>
       </c>
-      <c r="B2" t="s">
-        <v>42</v>
-      </c>
       <c r="C2" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>81</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>82</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>83</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="E5" t="s">
-        <v>84</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="D6" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="E6" t="s">
-        <v>85</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="E7" t="s">
-        <v>86</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C8" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="D8" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="E8" t="s">
-        <v>84</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="B9" t="s">
         <v>48</v>
       </c>
       <c r="C9" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="D9" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="E9" t="s">
-        <v>84</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C10" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="D10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E10" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C11" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="D11" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E11" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="B12" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="C12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" t="s">
         <v>64</v>
       </c>
-      <c r="D12" t="s">
-        <v>58</v>
-      </c>
       <c r="E12" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="C13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" t="s">
         <v>70</v>
-      </c>
-      <c r="D13" t="s">
-        <v>58</v>
-      </c>
-      <c r="E13" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>71</v>
       </c>
       <c r="B14" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="C14" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D14" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="E14" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="B15" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="C15" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D15" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="E15" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="B16" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="C16" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="D16" t="s">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="E16" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="B17" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="C17" t="s">
-        <v>73</v>
+        <v>17</v>
       </c>
       <c r="D17" t="s">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="E17" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>87</v>
       </c>
       <c r="B18" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="C18" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D18" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="E18" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>92</v>
       </c>
       <c r="B19" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="C19" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="D19" t="s">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="E19" t="s">
-        <v>86</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>96</v>
       </c>
       <c r="B20" t="s">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="C20" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="D20" t="s">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="E20" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" t="s">
-        <v>57</v>
-      </c>
-      <c r="C21" t="s">
-        <v>76</v>
-      </c>
-      <c r="D21" t="s">
-        <v>58</v>
-      </c>
-      <c r="E21" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22" t="s">
-        <v>58</v>
-      </c>
-      <c r="C22" t="s">
-        <v>58</v>
-      </c>
-      <c r="D22" t="s">
-        <v>58</v>
-      </c>
-      <c r="E22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" t="s">
-        <v>37</v>
-      </c>
-      <c r="B23" t="s">
-        <v>59</v>
-      </c>
-      <c r="C23" t="s">
-        <v>77</v>
-      </c>
-      <c r="D23" t="s">
-        <v>58</v>
-      </c>
-      <c r="E23" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" t="s">
-        <v>38</v>
-      </c>
-      <c r="B24" t="s">
-        <v>60</v>
-      </c>
-      <c r="C24" t="s">
-        <v>78</v>
-      </c>
-      <c r="D24" t="s">
-        <v>58</v>
-      </c>
-      <c r="E24" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" t="s">
-        <v>39</v>
-      </c>
-      <c r="B25" t="s">
-        <v>61</v>
-      </c>
-      <c r="C25" t="s">
-        <v>79</v>
-      </c>
-      <c r="D25" t="s">
-        <v>58</v>
-      </c>
-      <c r="E25" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" t="s">
-        <v>40</v>
-      </c>
-      <c r="B26" t="s">
-        <v>61</v>
-      </c>
-      <c r="C26" t="s">
-        <v>79</v>
-      </c>
-      <c r="D26" t="s">
-        <v>58</v>
-      </c>
-      <c r="E26" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" t="s">
-        <v>41</v>
-      </c>
-      <c r="B27" t="s">
-        <v>62</v>
-      </c>
-      <c r="C27" t="s">
-        <v>80</v>
-      </c>
-      <c r="D27" t="s">
-        <v>58</v>
-      </c>
-      <c r="E27" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Investment/THS/AutoTrade/data/账户持仓信息.xlsx
+++ b/Investment/THS/AutoTrade/data/账户持仓信息.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="102">
   <si>
     <t>总资产</t>
   </si>
@@ -35,22 +35,22 @@
     <t>可取</t>
   </si>
   <si>
-    <t>84,065.07</t>
-  </si>
-  <si>
-    <t>+765.49</t>
+    <t>83,020.04</t>
+  </si>
+  <si>
+    <t>+1,043.20</t>
   </si>
   <si>
     <t>/未找到</t>
   </si>
   <si>
-    <t>74,317.00</t>
-  </si>
-  <si>
-    <t>9,748.07</t>
-  </si>
-  <si>
-    <t>8,891.79</t>
+    <t>81,093.10</t>
+  </si>
+  <si>
+    <t>1,926.94</t>
+  </si>
+  <si>
+    <t>0.00</t>
   </si>
   <si>
     <t>标的名称</t>
@@ -65,18 +65,18 @@
     <t>持仓/可用</t>
   </si>
   <si>
-    <t>超讯通信</t>
-  </si>
-  <si>
     <t>汉钟精机</t>
   </si>
   <si>
+    <t>稀土ETF</t>
+  </si>
+  <si>
+    <t>汇洲智能</t>
+  </si>
+  <si>
     <t>醋化股份</t>
   </si>
   <si>
-    <t>稀土ETF</t>
-  </si>
-  <si>
     <t>神州信息</t>
   </si>
   <si>
@@ -89,18 +89,18 @@
     <t>宽基</t>
   </si>
   <si>
+    <t>恒生科技ETF</t>
+  </si>
+  <si>
+    <t>A500指数ETF</t>
+  </si>
+  <si>
     <t>恒生ETF</t>
   </si>
   <si>
-    <t>A500指数ETF</t>
-  </si>
-  <si>
     <t>标普ETF</t>
   </si>
   <si>
-    <t>恒生科技ETF</t>
-  </si>
-  <si>
     <t>债券</t>
   </si>
   <si>
@@ -116,250 +116,208 @@
     <t>长线</t>
   </si>
   <si>
+    <t>中国电信</t>
+  </si>
+  <si>
+    <t>工商银行</t>
+  </si>
+  <si>
+    <t>黄金ETF华夏</t>
+  </si>
+  <si>
     <t>长江电力</t>
   </si>
   <si>
-    <t>工商银行</t>
-  </si>
-  <si>
-    <t>黄金ETF华夏</t>
-  </si>
-  <si>
-    <t>未找到</t>
-  </si>
-  <si>
-    <t>中国电信</t>
-  </si>
-  <si>
     <t>隐藏</t>
   </si>
   <si>
-    <t>京运通</t>
-  </si>
-  <si>
-    <t>华昌化工</t>
-  </si>
-  <si>
-    <t>-590.66/-13.159%</t>
-  </si>
-  <si>
-    <t>-38.27/-1.120%</t>
-  </si>
-  <si>
-    <t>-49.69/-1.522%</t>
-  </si>
-  <si>
-    <t>-69.34/-2.061%</t>
-  </si>
-  <si>
-    <t>-44.78/-2.061%</t>
-  </si>
-  <si>
-    <t>34.76/1.915%</t>
-  </si>
-  <si>
-    <t>418.25/0.000%</t>
-  </si>
-  <si>
-    <t>-25.99/-0.860%</t>
-  </si>
-  <si>
-    <t>-207.23/-7.270%</t>
-  </si>
-  <si>
-    <t>277.41/10.830%</t>
-  </si>
-  <si>
-    <t>30.36/10.830%</t>
-  </si>
-  <si>
-    <t>30.46/0.267%</t>
-  </si>
-  <si>
-    <t>22.08/0.210%</t>
-  </si>
-  <si>
-    <t>102.38/0.948%</t>
-  </si>
-  <si>
-    <t>190.20/6.601%</t>
-  </si>
-  <si>
-    <t>303.74/26.540%</t>
-  </si>
-  <si>
-    <t>80.33/1.544%</t>
+    <t>新标准券</t>
+  </si>
+  <si>
+    <t>-50.27/-1.470%</t>
+  </si>
+  <si>
+    <t>-102.33/-3.039%</t>
+  </si>
+  <si>
+    <t>-2.65/-0.080%</t>
+  </si>
+  <si>
+    <t>-109.65/-3.343%</t>
+  </si>
+  <si>
+    <t>-247.83/-3.343%</t>
+  </si>
+  <si>
+    <t>-4.21/-0.240%</t>
+  </si>
+  <si>
+    <t>236.41/9.220%</t>
+  </si>
+  <si>
+    <t>-41.99/-1.386%</t>
+  </si>
+  <si>
+    <t>417.55/0.000%</t>
+  </si>
+  <si>
+    <t>-210.63/-7.390%</t>
+  </si>
+  <si>
+    <t>32.26/0.281%</t>
+  </si>
+  <si>
+    <t>22.28/0.210%</t>
+  </si>
+  <si>
+    <t>78.08/0.718%</t>
+  </si>
+  <si>
+    <t>490.41/18.480%</t>
+  </si>
+  <si>
+    <t>321.73/28.115%</t>
+  </si>
+  <si>
+    <t>41.83/0.797%</t>
+  </si>
+  <si>
+    <t>172.21/5.981%</t>
+  </si>
+  <si>
+    <t>0.00/0.000%</t>
+  </si>
+  <si>
+    <t>22.00/0.656%</t>
+  </si>
+  <si>
+    <t>3.00/0.092%</t>
+  </si>
+  <si>
+    <t>-3.00/-0.094%</t>
+  </si>
+  <si>
+    <t>2.20/-1.180%</t>
+  </si>
+  <si>
+    <t>-30.00/-1.642%</t>
+  </si>
+  <si>
+    <t>16.40/0.590%</t>
+  </si>
+  <si>
+    <t>3.20/0.107%</t>
+  </si>
+  <si>
+    <t>1.20/0.840%</t>
+  </si>
+  <si>
+    <t>2.20/0.019%</t>
+  </si>
+  <si>
+    <t>1.00/0.009%</t>
+  </si>
+  <si>
+    <t>-0.90/-0.008%</t>
+  </si>
+  <si>
+    <t>8.00/0.255%</t>
+  </si>
+  <si>
+    <t>6.00/0.411%</t>
+  </si>
+  <si>
+    <t>-13.30/-0.253%</t>
+  </si>
+  <si>
+    <t>-21.00/-0.684%</t>
+  </si>
+  <si>
+    <t>--/</t>
   </si>
   <si>
     <t>未找到/未找到</t>
   </si>
   <si>
-    <t>442.44/16.679%</t>
-  </si>
-  <si>
-    <t>-49.44/-2.240%</t>
-  </si>
-  <si>
-    <t>-42.16/-1.360%</t>
-  </si>
-  <si>
-    <t>-1.00/-0.026%</t>
-  </si>
-  <si>
-    <t>-18.00/-0.528%</t>
-  </si>
-  <si>
-    <t>-21.00/-0.645%</t>
-  </si>
-  <si>
-    <t>-24.00/-0.721%</t>
-  </si>
-  <si>
-    <t>-42.00/-0.721%</t>
-  </si>
-  <si>
-    <t>-18.00/-0.971%</t>
-  </si>
-  <si>
-    <t>-0.90/-0.618%</t>
-  </si>
-  <si>
-    <t>-6.40/-0.212%</t>
-  </si>
-  <si>
-    <t>-11.90/-0.448%</t>
-  </si>
-  <si>
-    <t>-12.30/-0.432%</t>
-  </si>
-  <si>
-    <t>4.20/-0.512%</t>
-  </si>
-  <si>
-    <t>4.40/0.038%</t>
-  </si>
-  <si>
-    <t>2.40/0.022%</t>
-  </si>
-  <si>
-    <t>-23.40/-0.214%</t>
-  </si>
-  <si>
-    <t>-2.00/-0.065%</t>
-  </si>
-  <si>
-    <t>-2.00/-0.138%</t>
-  </si>
-  <si>
-    <t>-2.80/-0.053%</t>
-  </si>
-  <si>
-    <t>-28.00/-0.896%</t>
-  </si>
-  <si>
-    <t>-30.00/-1.613%</t>
-  </si>
-  <si>
-    <t>-44.00/-1.488%</t>
-  </si>
-  <si>
-    <t>44.912/39.000</t>
-  </si>
-  <si>
-    <t>17.133/16.940</t>
-  </si>
-  <si>
-    <t>10.946/10.780</t>
-  </si>
-  <si>
-    <t>1.125/1.102</t>
-  </si>
-  <si>
-    <t>12.950/1.102</t>
-  </si>
-  <si>
-    <t>6.005/6.120</t>
-  </si>
-  <si>
-    <t>-2.736/1.447</t>
-  </si>
-  <si>
-    <t>0.950/0.942</t>
-  </si>
-  <si>
-    <t>1.677/1.555</t>
-  </si>
-  <si>
-    <t>0.624/0.692</t>
-  </si>
-  <si>
-    <t>115.550/1.554</t>
-  </si>
-  <si>
-    <t>115.550/115.855</t>
-  </si>
-  <si>
-    <t>107.607/107.828</t>
-  </si>
-  <si>
-    <t>12.036/12.150</t>
-  </si>
-  <si>
-    <t>28.789/30.690</t>
-  </si>
-  <si>
-    <t>5.721/7.240</t>
-  </si>
-  <si>
-    <t>7.423/7.537</t>
-  </si>
-  <si>
-    <t>6.634/7.740</t>
-  </si>
-  <si>
-    <t>3.130/3.070</t>
-  </si>
-  <si>
-    <t>3.130/3.060</t>
-  </si>
-  <si>
-    <t>7.380/7.290</t>
+    <t>1.125/1.091</t>
+  </si>
+  <si>
+    <t>4.073/4.070</t>
+  </si>
+  <si>
+    <t>10.946/10.580</t>
+  </si>
+  <si>
+    <t>6.005/5.990</t>
+  </si>
+  <si>
+    <t>0.624/0.682</t>
+  </si>
+  <si>
+    <t>0.950/0.937</t>
+  </si>
+  <si>
+    <t>-2.736/1.440</t>
+  </si>
+  <si>
+    <t>1.677/1.553</t>
+  </si>
+  <si>
+    <t>115.550/115.873</t>
+  </si>
+  <si>
+    <t>107.607/107.830</t>
+  </si>
+  <si>
+    <t>12.036/12.123</t>
+  </si>
+  <si>
+    <t>6.634/7.860</t>
+  </si>
+  <si>
+    <t>5.721/7.330</t>
+  </si>
+  <si>
+    <t>7.423/7.482</t>
+  </si>
+  <si>
+    <t>28.789/30.510</t>
+  </si>
+  <si>
+    <t>0.000/100.000</t>
+  </si>
+  <si>
+    <t>200/200</t>
+  </si>
+  <si>
+    <t>3000/3000</t>
+  </si>
+  <si>
+    <t>900/0</t>
+  </si>
+  <si>
+    <t>300/300</t>
+  </si>
+  <si>
+    <t>4100/4100</t>
+  </si>
+  <si>
+    <t>3200/3200</t>
   </si>
   <si>
     <t>100/100</t>
   </si>
   <si>
-    <t>200/200</t>
-  </si>
-  <si>
-    <t>300/300</t>
-  </si>
-  <si>
-    <t>3000/3000</t>
-  </si>
-  <si>
-    <t>300/3000</t>
-  </si>
-  <si>
-    <t>3200/3200</t>
-  </si>
-  <si>
     <t>1700/1700</t>
   </si>
   <si>
-    <t>4100/4100</t>
-  </si>
-  <si>
-    <t>100/1700</t>
-  </si>
-  <si>
     <t>900/900</t>
   </si>
   <si>
+    <t>400/400</t>
+  </si>
+  <si>
     <t>700/700</t>
-  </si>
-  <si>
-    <t>400/400</t>
   </si>
   <si>
     <t>0/0</t>
@@ -773,7 +731,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -801,16 +759,16 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D2" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="E2" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -818,16 +776,16 @@
         <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D3" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="E3" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -835,16 +793,16 @@
         <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D4" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="E4" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -852,16 +810,16 @@
         <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D5" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="E5" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -869,16 +827,16 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D6" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="E6" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -886,16 +844,16 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C7" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D7" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="E7" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -903,16 +861,16 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C8" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D8" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="E8" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -920,16 +878,16 @@
         <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C9" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D9" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="E9" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -937,16 +895,16 @@
         <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C10" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D10" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="E10" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -954,16 +912,16 @@
         <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D11" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="E11" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -971,16 +929,16 @@
         <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C12" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D12" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="E12" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -988,16 +946,16 @@
         <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C13" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="D13" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="E13" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1005,16 +963,16 @@
         <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C14" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D14" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="E14" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1022,16 +980,16 @@
         <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C15" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D15" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="E15" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1039,16 +997,16 @@
         <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C16" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D16" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="E16" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1056,16 +1014,16 @@
         <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C17" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D17" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="E17" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1073,16 +1031,16 @@
         <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C18" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D18" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="E18" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1090,16 +1048,16 @@
         <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C19" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D19" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="E19" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1107,16 +1065,16 @@
         <v>34</v>
       </c>
       <c r="B20" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C20" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="D20" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="E20" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1124,16 +1082,16 @@
         <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C21" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D21" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="E21" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1141,16 +1099,16 @@
         <v>36</v>
       </c>
       <c r="B22" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C22" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="D22" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="E22" t="s">
-        <v>36</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1158,16 +1116,16 @@
         <v>37</v>
       </c>
       <c r="B23" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C23" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="D23" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="E23" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1175,50 +1133,16 @@
         <v>38</v>
       </c>
       <c r="B24" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C24" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D24" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="E24" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" t="s">
-        <v>39</v>
-      </c>
-      <c r="B25" t="s">
-        <v>60</v>
-      </c>
-      <c r="C25" t="s">
-        <v>80</v>
-      </c>
-      <c r="D25" t="s">
         <v>101</v>
-      </c>
-      <c r="E25" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" t="s">
-        <v>40</v>
-      </c>
-      <c r="B26" t="s">
-        <v>61</v>
-      </c>
-      <c r="C26" t="s">
-        <v>81</v>
-      </c>
-      <c r="D26" t="s">
-        <v>102</v>
-      </c>
-      <c r="E26" t="s">
-        <v>115</v>
       </c>
     </row>
   </sheetData>
